--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-ImageApps-IndianSareeDesigns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0268337D-3B98-4CDC-9F6D-CA07F64BE5B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A640C5ED-3F0B-4BDD-9C05-296F829E3F4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="249" xr2:uid="{B8895C67-6952-4A81-99F9-7D657C537D61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4083" uniqueCount="4064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="4084">
   <si>
     <t>Headers</t>
   </si>
@@ -12222,6 +12222,66 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/C20/HD/100.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApps-IndianSareeDesigns/master/MI/20.png</t>
   </si>
 </sst>
 </file>
@@ -12621,8 +12681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E2BA85-0A0D-4BBD-8243-7EDE44B35083}">
   <dimension ref="A1:CC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AS19" sqref="AS19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12884,6 +12944,9 @@
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>4064</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
@@ -13012,6 +13075,9 @@
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>4065</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
@@ -13140,6 +13206,9 @@
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>4066</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
@@ -13268,6 +13337,9 @@
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>4067</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
@@ -13396,6 +13468,9 @@
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>4068</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -13524,6 +13599,9 @@
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>4069</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
@@ -13652,6 +13730,9 @@
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>4070</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
@@ -13780,6 +13861,9 @@
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>4071</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
@@ -13908,6 +13992,9 @@
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>4072</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
@@ -14036,6 +14123,9 @@
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>4073</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
@@ -14164,6 +14254,9 @@
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>4074</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
@@ -14292,6 +14385,9 @@
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>4075</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
@@ -14420,6 +14516,9 @@
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>4076</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
@@ -14548,6 +14647,9 @@
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>4077</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
@@ -14676,6 +14778,9 @@
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>4078</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
@@ -14804,6 +14909,9 @@
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>4079</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
@@ -14932,6 +15040,9 @@
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>4080</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
@@ -15060,6 +15171,9 @@
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>4081</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
@@ -15188,6 +15302,9 @@
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>4082</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
@@ -15315,6 +15432,9 @@
     <row r="21" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4083</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>45</v>
